--- a/kruti_kolesa_bot_aio/works_norm.xlsx
+++ b/kruti_kolesa_bot_aio/works_norm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python nafnaf\projects\kruti_kolesa_bot_aio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D8C076-BF2D-4574-A1CA-7D79BDE833D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35E0D0-DBE0-40AC-A74D-B9C044120DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96A3E81D-0E1C-473B-B9F4-DC75EB55418C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="187">
   <si>
     <t>Естественный износ кассеты/трещотки</t>
   </si>
@@ -534,9 +534,6 @@
     <t>Трансмиссия</t>
   </si>
   <si>
-    <t>Колеса (шины/камеры)</t>
-  </si>
-  <si>
     <t>Тросы и рулевое</t>
   </si>
   <si>
@@ -546,36 +543,12 @@
     <t>Рулевое</t>
   </si>
   <si>
-    <t>Колеса (обода/спицы)</t>
-  </si>
-  <si>
     <t>Электроника</t>
   </si>
   <si>
     <t>Рама/седло</t>
   </si>
   <si>
-    <t>Электроника (свет)</t>
-  </si>
-  <si>
-    <t>Трансмиссия (электро)</t>
-  </si>
-  <si>
-    <t>Подвеска (PRO)</t>
-  </si>
-  <si>
-    <t>Тормоза (электро)</t>
-  </si>
-  <si>
-    <t>Колеса (шины/камеры) (электро)</t>
-  </si>
-  <si>
-    <t>Подвеска (электро)</t>
-  </si>
-  <si>
-    <t>Рулевое (электро)</t>
-  </si>
-  <si>
     <t>Слесарные работы</t>
   </si>
   <si>
@@ -594,12 +567,6 @@
     <t>Рама</t>
   </si>
   <si>
-    <t>Аккумулятор (PRO)</t>
-  </si>
-  <si>
-    <t>Рама/седло (PRO)</t>
-  </si>
-  <si>
     <t>Сборка электровелосипеда</t>
   </si>
   <si>
@@ -628,6 +595,9 @@
   </si>
   <si>
     <t>хз</t>
+  </si>
+  <si>
+    <t>Колеса</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB43C042-E972-4069-BEB4-13C4882FC155}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,13 +1094,13 @@
         <v>0.4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -1142,13 +1112,13 @@
         <v>0.3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1160,13 +1130,13 @@
         <v>0.3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1178,13 +1148,13 @@
         <v>0.3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1196,13 +1166,13 @@
         <v>0.2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1214,13 +1184,13 @@
         <v>0.4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1232,13 +1202,13 @@
         <v>0.8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1250,13 +1220,13 @@
         <v>0.3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1268,13 +1238,13 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1286,13 +1256,13 @@
         <v>1.5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1304,13 +1274,13 @@
         <v>0.4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1322,13 +1292,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1340,13 +1310,13 @@
         <v>0.4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1358,13 +1328,13 @@
         <v>0.3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1376,13 +1346,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1394,13 +1364,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1412,13 +1382,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1430,13 +1400,13 @@
         <v>0.4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1448,13 +1418,13 @@
         <v>0.4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1466,13 +1436,13 @@
         <v>0.3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1484,13 +1454,13 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1502,13 +1472,13 @@
         <v>0.3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1520,13 +1490,13 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1538,13 +1508,13 @@
         <v>0.7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1556,13 +1526,13 @@
         <v>0.5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1574,13 +1544,13 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1592,31 +1562,31 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B28" s="3">
         <v>0.5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1628,13 +1598,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -1646,13 +1616,13 @@
         <v>0.3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1664,13 +1634,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -1682,13 +1652,13 @@
         <v>0.9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -1700,13 +1670,13 @@
         <v>0.2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -1718,7 +1688,7 @@
         <v>0.4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>1</v>
@@ -1736,7 +1706,7 @@
         <v>0.4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>62</v>
@@ -1754,7 +1724,7 @@
         <v>0.8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>62</v>
@@ -1772,7 +1742,7 @@
         <v>0.4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>62</v>
@@ -1790,7 +1760,7 @@
         <v>0.2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>62</v>
@@ -1808,7 +1778,7 @@
         <v>0.2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>62</v>
@@ -1826,13 +1796,13 @@
         <v>0.4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -1844,13 +1814,13 @@
         <v>0.2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -1862,13 +1832,13 @@
         <v>0.4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -1880,13 +1850,13 @@
         <v>0.4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -1898,13 +1868,13 @@
         <v>0.3</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -1916,13 +1886,13 @@
         <v>0.3</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -1934,13 +1904,13 @@
         <v>1.7</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -1952,13 +1922,13 @@
         <v>0.8</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -1970,13 +1940,13 @@
         <v>0.4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -1988,13 +1958,13 @@
         <v>0.4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -2006,13 +1976,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -2024,13 +1994,13 @@
         <v>0.3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -2042,31 +2012,31 @@
         <v>0.3</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B53" s="3">
         <v>0.6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -2078,13 +2048,13 @@
         <v>0.3</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -2096,13 +2066,13 @@
         <v>0.5</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -2114,13 +2084,13 @@
         <v>0.3</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -2132,13 +2102,13 @@
         <v>0.8</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -2150,13 +2120,13 @@
         <v>0.3</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -2168,13 +2138,13 @@
         <v>0.5</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -2186,13 +2156,13 @@
         <v>0.3</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -2204,13 +2174,13 @@
         <v>0.5</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -2222,13 +2192,13 @@
         <v>0.4</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -2240,13 +2210,13 @@
         <v>0.4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -2258,13 +2228,13 @@
         <v>0.3</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -2276,13 +2246,13 @@
         <v>0.4</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -2294,13 +2264,13 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -2312,13 +2282,13 @@
         <v>0.3</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -2330,13 +2300,13 @@
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -2348,13 +2318,13 @@
         <v>0.3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -2366,13 +2336,13 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F70" s="1"/>
     </row>
@@ -2384,13 +2354,13 @@
         <v>0.5</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F71" s="1"/>
     </row>
@@ -2402,13 +2372,13 @@
         <v>0.5</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F72" s="1"/>
     </row>
@@ -2420,13 +2390,13 @@
         <v>0.4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -2438,13 +2408,13 @@
         <v>0.5</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -2456,13 +2426,13 @@
         <v>0.3</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -2474,13 +2444,13 @@
         <v>0.2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F76" s="1"/>
     </row>
@@ -2492,13 +2462,13 @@
         <v>0.2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F77" s="1"/>
     </row>
@@ -2510,13 +2480,13 @@
         <v>0.2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F78" s="1"/>
     </row>
@@ -2528,13 +2498,13 @@
         <v>0.2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -2546,13 +2516,13 @@
         <v>2.5</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F80" s="1"/>
     </row>
@@ -2564,13 +2534,13 @@
         <v>1</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -2582,7 +2552,7 @@
         <v>0.4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>1</v>
@@ -2600,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>1</v>
@@ -2618,7 +2588,7 @@
         <v>0.4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>62</v>
@@ -2636,13 +2606,13 @@
         <v>1.5</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -2654,13 +2624,13 @@
         <v>0.3</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F86" s="1"/>
     </row>
@@ -2672,13 +2642,13 @@
         <v>0.5</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F87" s="1"/>
     </row>
@@ -2690,13 +2660,13 @@
         <v>0.3</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F88" s="1"/>
     </row>
@@ -2708,49 +2678,49 @@
         <v>0.3</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B91" s="3">
         <v>0.8</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -2762,13 +2732,13 @@
         <v>0.8</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -2780,13 +2750,13 @@
         <v>0.8</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -2798,13 +2768,13 @@
         <v>1.2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F94" s="1"/>
     </row>
@@ -2816,13 +2786,13 @@
         <v>0.5</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F95" s="1"/>
     </row>
@@ -2834,13 +2804,13 @@
         <v>0.4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F96" s="1"/>
     </row>
@@ -2852,13 +2822,13 @@
         <v>0.6</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -2870,13 +2840,13 @@
         <v>0.7</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F98" s="1"/>
     </row>
@@ -2888,13 +2858,13 @@
         <v>0.3</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -2906,13 +2876,13 @@
         <v>0.8</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F100" s="1"/>
     </row>
@@ -2924,13 +2894,13 @@
         <v>0.1</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -2942,13 +2912,13 @@
         <v>0.2</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F102" s="1"/>
     </row>
@@ -2960,13 +2930,13 @@
         <v>0.2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -2978,13 +2948,13 @@
         <v>0.1</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F104" s="1"/>
     </row>
@@ -2996,13 +2966,13 @@
         <v>0.4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F105" s="1"/>
     </row>
@@ -3014,13 +2984,13 @@
         <v>0.3</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F106" s="1"/>
     </row>
@@ -3032,13 +3002,13 @@
         <v>0.1</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F107" s="1"/>
     </row>
@@ -3050,13 +3020,13 @@
         <v>0.3</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F108" s="1"/>
     </row>
@@ -3068,13 +3038,13 @@
         <v>0.2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -3086,13 +3056,13 @@
         <v>0.2</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F110" s="1"/>
     </row>
@@ -3104,13 +3074,13 @@
         <v>0.8</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D111" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F111" s="1"/>
     </row>
@@ -3122,13 +3092,13 @@
         <v>0.3</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F112" s="1"/>
     </row>
@@ -3140,7 +3110,7 @@
         <v>0.5</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>1</v>
@@ -3158,7 +3128,7 @@
         <v>0.4</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>1</v>
@@ -3176,7 +3146,7 @@
         <v>0.3</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>1</v>
@@ -3194,7 +3164,7 @@
         <v>0.4</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>1</v>
@@ -3212,7 +3182,7 @@
         <v>0.2</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>1</v>
@@ -3230,7 +3200,7 @@
         <v>0.4</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>62</v>
@@ -3248,7 +3218,7 @@
         <v>0.4</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>62</v>
@@ -3266,7 +3236,7 @@
         <v>0.8</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>62</v>
@@ -3284,7 +3254,7 @@
         <v>0.4</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>62</v>
@@ -3302,7 +3272,7 @@
         <v>0.4</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>62</v>
@@ -3320,7 +3290,7 @@
         <v>0.5</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>62</v>
@@ -3338,7 +3308,7 @@
         <v>0.2</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>62</v>
@@ -3356,13 +3326,13 @@
         <v>0.4</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -3374,13 +3344,13 @@
         <v>0.2</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F126" s="1"/>
     </row>
@@ -3392,13 +3362,13 @@
         <v>0.4</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -3410,13 +3380,13 @@
         <v>0.2</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F128" s="1"/>
     </row>
@@ -3428,13 +3398,13 @@
         <v>0.2</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F129" s="1"/>
     </row>
@@ -3446,13 +3416,13 @@
         <v>0.4</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F130" s="1"/>
     </row>
@@ -3464,13 +3434,13 @@
         <v>0.8</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F131" s="1"/>
     </row>
@@ -3482,13 +3452,13 @@
         <v>0.4</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F132" s="1"/>
     </row>
@@ -3500,13 +3470,13 @@
         <v>0.1</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F133" s="1"/>
     </row>
@@ -3518,13 +3488,13 @@
         <v>0.4</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F134" s="1"/>
     </row>
@@ -3536,13 +3506,13 @@
         <v>0.4</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F135" s="1"/>
     </row>
@@ -3554,13 +3524,13 @@
         <v>0.3</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -3572,13 +3542,13 @@
         <v>0.5</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F137" s="1"/>
     </row>
@@ -3590,13 +3560,13 @@
         <v>0.2</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -3608,13 +3578,13 @@
         <v>0.3</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -3626,13 +3596,13 @@
         <v>0.2</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F140" s="1"/>
     </row>
@@ -3644,13 +3614,13 @@
         <v>0.2</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F141" s="1"/>
     </row>
@@ -3662,13 +3632,13 @@
         <v>0.3</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F142" s="1"/>
     </row>
@@ -3680,13 +3650,13 @@
         <v>0.1</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F143" s="1"/>
     </row>
@@ -3698,13 +3668,13 @@
         <v>0.2</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F144" s="1"/>
     </row>
@@ -3716,13 +3686,13 @@
         <v>1</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F145" s="1"/>
     </row>
@@ -3734,13 +3704,13 @@
         <v>0.9</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F146" s="1"/>
     </row>
@@ -3752,13 +3722,13 @@
         <v>0.2</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F147" s="1"/>
     </row>
@@ -3770,13 +3740,13 @@
         <v>0.3</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F148" s="1"/>
     </row>
@@ -3788,31 +3758,31 @@
         <v>0.8</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B150" s="8">
         <v>0.5</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F150" s="1"/>
     </row>
@@ -3824,13 +3794,13 @@
         <v>0.3</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F151" s="1"/>
     </row>
@@ -3842,13 +3812,13 @@
         <v>0.4</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F152" s="1"/>
     </row>
@@ -3860,13 +3830,13 @@
         <v>0.5</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F153" s="1"/>
     </row>
@@ -3878,13 +3848,13 @@
         <v>0.6</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F154" s="1"/>
     </row>
@@ -3896,13 +3866,13 @@
         <v>0.5</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F155" s="1"/>
     </row>
@@ -3914,13 +3884,13 @@
         <v>0.8</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F156" s="1"/>
     </row>
@@ -3932,13 +3902,13 @@
         <v>0.4</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F157" s="1"/>
     </row>
@@ -3950,13 +3920,13 @@
         <v>0.5</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F158" s="1"/>
     </row>
@@ -3968,13 +3938,13 @@
         <v>1</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F159" s="1"/>
     </row>
@@ -3986,13 +3956,13 @@
         <v>0.4</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F160" s="1"/>
     </row>
@@ -4004,13 +3974,13 @@
         <v>0.2</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F161" s="1"/>
     </row>
@@ -4022,13 +3992,13 @@
         <v>0.3</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F162" s="1"/>
     </row>
@@ -4040,13 +4010,13 @@
         <v>1</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D163" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F163" s="1"/>
     </row>
@@ -4058,13 +4028,13 @@
         <v>0.2</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F164" s="1"/>
     </row>
@@ -4076,13 +4046,13 @@
         <v>0.3</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F165" s="1"/>
     </row>
@@ -4094,13 +4064,13 @@
         <v>1</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F166" s="1"/>
     </row>
@@ -4112,13 +4082,13 @@
         <v>0.2</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F167" s="1"/>
     </row>
@@ -4130,13 +4100,13 @@
         <v>0.2</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F168" s="1"/>
     </row>
@@ -4148,13 +4118,13 @@
         <v>0.3</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D169" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F169" s="1"/>
     </row>
